--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gas6-Axl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Gas6-Axl.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.23438166666667</v>
+        <v>16.014007</v>
       </c>
       <c r="H2">
-        <v>57.70314500000001</v>
+        <v>48.04202100000001</v>
       </c>
       <c r="I2">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="J2">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.203295</v>
+        <v>3.243447333333334</v>
       </c>
       <c r="N2">
-        <v>12.609885</v>
+        <v>9.730342</v>
       </c>
       <c r="O2">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="P2">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="Q2">
-        <v>80.84778028759166</v>
+        <v>51.94058830013135</v>
       </c>
       <c r="R2">
-        <v>727.630022588325</v>
+        <v>467.4652947011821</v>
       </c>
       <c r="S2">
-        <v>0.003217335709527099</v>
+        <v>0.001174945384283777</v>
       </c>
       <c r="T2">
-        <v>0.003217335709527099</v>
+        <v>0.001174945384283776</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.23438166666667</v>
+        <v>16.014007</v>
       </c>
       <c r="H3">
-        <v>57.70314500000001</v>
+        <v>48.04202100000001</v>
       </c>
       <c r="I3">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="J3">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>191.513858</v>
       </c>
       <c r="O3">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="P3">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="Q3">
-        <v>1227.883546409268</v>
+        <v>1022.301420869669</v>
       </c>
       <c r="R3">
-        <v>11050.95191768341</v>
+        <v>9200.712787827018</v>
       </c>
       <c r="S3">
-        <v>0.04886359980386039</v>
+        <v>0.02312542801511793</v>
       </c>
       <c r="T3">
-        <v>0.0488635998038604</v>
+        <v>0.02312542801511793</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.23438166666667</v>
+        <v>16.014007</v>
       </c>
       <c r="H4">
-        <v>57.70314500000001</v>
+        <v>48.04202100000001</v>
       </c>
       <c r="I4">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="J4">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.211444666666667</v>
+        <v>103.7552793333333</v>
       </c>
       <c r="N4">
-        <v>24.634334</v>
+        <v>311.265838</v>
       </c>
       <c r="O4">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="P4">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="Q4">
-        <v>157.9420607533811</v>
+        <v>1661.537769530956</v>
       </c>
       <c r="R4">
-        <v>1421.47854678043</v>
+        <v>14953.8399257786</v>
       </c>
       <c r="S4">
-        <v>0.006285300972896861</v>
+        <v>0.03758556067642039</v>
       </c>
       <c r="T4">
-        <v>0.006285300972896862</v>
+        <v>0.03758556067642038</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.23438166666667</v>
+        <v>16.014007</v>
       </c>
       <c r="H5">
-        <v>57.70314500000001</v>
+        <v>48.04202100000001</v>
       </c>
       <c r="I5">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="J5">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>32.53755666666667</v>
+        <v>23.61337433333334</v>
       </c>
       <c r="N5">
-        <v>97.61267000000001</v>
+        <v>70.84012300000001</v>
       </c>
       <c r="O5">
-        <v>0.2345375729390458</v>
+        <v>0.09139594860190291</v>
       </c>
       <c r="P5">
-        <v>0.2345375729390459</v>
+        <v>0.09139594860190289</v>
       </c>
       <c r="Q5">
-        <v>625.8397834274612</v>
+        <v>378.1447418676204</v>
       </c>
       <c r="R5">
-        <v>5632.558050847151</v>
+        <v>3403.302676808584</v>
       </c>
       <c r="S5">
-        <v>0.02490528096753337</v>
+        <v>0.008553992813504911</v>
       </c>
       <c r="T5">
-        <v>0.02490528096753337</v>
+        <v>0.008553992813504911</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.23438166666667</v>
+        <v>16.014007</v>
       </c>
       <c r="H6">
-        <v>57.70314500000001</v>
+        <v>48.04202100000001</v>
       </c>
       <c r="I6">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="J6">
-        <v>0.1061888747949397</v>
+        <v>0.09359269140871758</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.94042966666667</v>
+        <v>63.91341533333334</v>
       </c>
       <c r="N6">
-        <v>89.82128900000001</v>
+        <v>191.740246</v>
       </c>
       <c r="O6">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="P6">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="Q6">
-        <v>575.8856514726563</v>
+        <v>1023.509880541908</v>
       </c>
       <c r="R6">
-        <v>5182.970863253906</v>
+        <v>9211.588924877167</v>
       </c>
       <c r="S6">
-        <v>0.02291735734112195</v>
+        <v>0.02315276451939057</v>
       </c>
       <c r="T6">
-        <v>0.02291735734112195</v>
+        <v>0.02315276451939056</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>305.798455</v>
       </c>
       <c r="I7">
-        <v>0.5627491161960234</v>
+        <v>0.5957388935007043</v>
       </c>
       <c r="J7">
-        <v>0.5627491161960235</v>
+        <v>0.5957388935007044</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.203295</v>
+        <v>3.243447333333334</v>
       </c>
       <c r="N7">
-        <v>12.609885</v>
+        <v>9.730342</v>
       </c>
       <c r="O7">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="P7">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="Q7">
-        <v>428.4537056364083</v>
+        <v>330.6137278024011</v>
       </c>
       <c r="R7">
-        <v>3856.083350727674</v>
+        <v>2975.52355022161</v>
       </c>
       <c r="S7">
-        <v>0.01705030616944216</v>
+        <v>0.007478796181854216</v>
       </c>
       <c r="T7">
-        <v>0.01705030616944216</v>
+        <v>0.007478796181854217</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>305.798455</v>
       </c>
       <c r="I8">
-        <v>0.5627491161960234</v>
+        <v>0.5957388935007043</v>
       </c>
       <c r="J8">
-        <v>0.5627491161960235</v>
+        <v>0.5957388935007044</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>191.513858</v>
       </c>
       <c r="O8">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="P8">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="Q8">
-        <v>6507.182431943266</v>
+        <v>6507.182431943265</v>
       </c>
       <c r="R8">
         <v>58564.64188748939</v>
       </c>
       <c r="S8">
-        <v>0.2589531874867272</v>
+        <v>0.1471986400871182</v>
       </c>
       <c r="T8">
-        <v>0.2589531874867273</v>
+        <v>0.1471986400871183</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>305.798455</v>
       </c>
       <c r="I9">
-        <v>0.5627491161960234</v>
+        <v>0.5957388935007043</v>
       </c>
       <c r="J9">
-        <v>0.5627491161960235</v>
+        <v>0.5957388935007044</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.211444666666667</v>
+        <v>103.7552793333333</v>
       </c>
       <c r="N9">
-        <v>24.634334</v>
+        <v>311.265838</v>
       </c>
       <c r="O9">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="P9">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="Q9">
-        <v>837.0156974615522</v>
+        <v>10576.06803940892</v>
       </c>
       <c r="R9">
-        <v>7533.14127715397</v>
+        <v>95184.61235468028</v>
       </c>
       <c r="S9">
-        <v>0.03330902200775809</v>
+        <v>0.2392406927501677</v>
       </c>
       <c r="T9">
-        <v>0.0333090220077581</v>
+        <v>0.2392406927501677</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>305.798455</v>
       </c>
       <c r="I10">
-        <v>0.5627491161960234</v>
+        <v>0.5957388935007043</v>
       </c>
       <c r="J10">
-        <v>0.5627491161960235</v>
+        <v>0.5957388935007044</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.53755666666667</v>
+        <v>23.61337433333334</v>
       </c>
       <c r="N10">
-        <v>97.61267000000001</v>
+        <v>70.84012300000001</v>
       </c>
       <c r="O10">
-        <v>0.2345375729390458</v>
+        <v>0.09139594860190291</v>
       </c>
       <c r="P10">
-        <v>0.2345375729390459</v>
+        <v>0.09139594860190289</v>
       </c>
       <c r="Q10">
-        <v>3316.644852713872</v>
+        <v>2406.977796156663</v>
       </c>
       <c r="R10">
-        <v>29849.80367442485</v>
+        <v>21662.80016540996</v>
       </c>
       <c r="S10">
-        <v>0.1319858118862084</v>
+        <v>0.05444812129054488</v>
       </c>
       <c r="T10">
-        <v>0.1319858118862085</v>
+        <v>0.05444812129054488</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>305.798455</v>
       </c>
       <c r="I11">
-        <v>0.5627491161960234</v>
+        <v>0.5957388935007043</v>
       </c>
       <c r="J11">
-        <v>0.5627491161960235</v>
+        <v>0.5957388935007044</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.94042966666667</v>
+        <v>63.91341533333334</v>
       </c>
       <c r="N11">
-        <v>89.82128900000001</v>
+        <v>191.740246</v>
       </c>
       <c r="O11">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="P11">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="Q11">
-        <v>3051.912378034277</v>
+        <v>6514.874554235548</v>
       </c>
       <c r="R11">
-        <v>27467.2114023085</v>
+        <v>58633.87098811993</v>
       </c>
       <c r="S11">
-        <v>0.1214507886458875</v>
+        <v>0.1473726431910192</v>
       </c>
       <c r="T11">
-        <v>0.1214507886458875</v>
+        <v>0.1473726431910192</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>33.990832</v>
+        <v>19.33193133333333</v>
       </c>
       <c r="H12">
-        <v>101.972496</v>
+        <v>57.995794</v>
       </c>
       <c r="I12">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="J12">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.203295</v>
+        <v>3.243447333333334</v>
       </c>
       <c r="N12">
-        <v>12.609885</v>
+        <v>9.730342</v>
       </c>
       <c r="O12">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="P12">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="Q12">
-        <v>142.87349419144</v>
+        <v>62.70210113128311</v>
       </c>
       <c r="R12">
-        <v>1285.86144772296</v>
+        <v>564.3189101815479</v>
       </c>
       <c r="S12">
-        <v>0.005685647684721677</v>
+        <v>0.00141838101415785</v>
       </c>
       <c r="T12">
-        <v>0.005685647684721677</v>
+        <v>0.00141838101415785</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>33.990832</v>
+        <v>19.33193133333333</v>
       </c>
       <c r="H13">
-        <v>101.972496</v>
+        <v>57.995794</v>
       </c>
       <c r="I13">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="J13">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>191.513858</v>
       </c>
       <c r="O13">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="P13">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="Q13">
-        <v>2169.905124316619</v>
+        <v>1234.110917412584</v>
       </c>
       <c r="R13">
-        <v>19529.14611884957</v>
+        <v>11106.99825671325</v>
       </c>
       <c r="S13">
-        <v>0.08635132860686805</v>
+        <v>0.0279167597742528</v>
       </c>
       <c r="T13">
-        <v>0.08635132860686805</v>
+        <v>0.02791675977425279</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>33.990832</v>
+        <v>19.33193133333333</v>
       </c>
       <c r="H14">
-        <v>101.972496</v>
+        <v>57.995794</v>
       </c>
       <c r="I14">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="J14">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.211444666666667</v>
+        <v>103.7552793333333</v>
       </c>
       <c r="N14">
-        <v>24.634334</v>
+        <v>311.265838</v>
       </c>
       <c r="O14">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="P14">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="Q14">
-        <v>279.1138361419627</v>
+        <v>2005.789935542819</v>
       </c>
       <c r="R14">
-        <v>2512.024525277664</v>
+        <v>18052.10941988537</v>
       </c>
       <c r="S14">
-        <v>0.01110732921606823</v>
+        <v>0.04537287126959495</v>
       </c>
       <c r="T14">
-        <v>0.01110732921606823</v>
+        <v>0.04537287126959494</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>33.990832</v>
+        <v>19.33193133333333</v>
       </c>
       <c r="H15">
-        <v>101.972496</v>
+        <v>57.995794</v>
       </c>
       <c r="I15">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="J15">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>32.53755666666667</v>
+        <v>23.61337433333334</v>
       </c>
       <c r="N15">
-        <v>97.61267000000001</v>
+        <v>70.84012300000001</v>
       </c>
       <c r="O15">
-        <v>0.2345375729390458</v>
+        <v>0.09139594860190291</v>
       </c>
       <c r="P15">
-        <v>0.2345375729390459</v>
+        <v>0.09139594860190289</v>
       </c>
       <c r="Q15">
-        <v>1105.978622347147</v>
+        <v>456.4921311602959</v>
       </c>
       <c r="R15">
-        <v>9953.807601124321</v>
+        <v>4108.429180442662</v>
       </c>
       <c r="S15">
-        <v>0.0440123959247052</v>
+        <v>0.01032628508882903</v>
       </c>
       <c r="T15">
-        <v>0.0440123959247052</v>
+        <v>0.01032628508882903</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>33.990832</v>
+        <v>19.33193133333333</v>
       </c>
       <c r="H16">
-        <v>101.972496</v>
+        <v>57.995794</v>
       </c>
       <c r="I16">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="J16">
-        <v>0.1876560560134372</v>
+        <v>0.1129840572453343</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.94042966666667</v>
+        <v>63.91341533333334</v>
       </c>
       <c r="N16">
-        <v>89.82128900000001</v>
+        <v>191.740246</v>
       </c>
       <c r="O16">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="P16">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="Q16">
-        <v>1017.700114807483</v>
+        <v>1235.569756502814</v>
       </c>
       <c r="R16">
-        <v>9159.301033267346</v>
+        <v>11120.12780852532</v>
       </c>
       <c r="S16">
-        <v>0.04049935458107404</v>
+        <v>0.02794976009849969</v>
       </c>
       <c r="T16">
-        <v>0.04049935458107403</v>
+        <v>0.02794976009849969</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.103486</v>
+        <v>0.6875779999999999</v>
       </c>
       <c r="H17">
-        <v>3.310458</v>
+        <v>2.062734</v>
       </c>
       <c r="I17">
-        <v>0.006092108325740414</v>
+        <v>0.004018499278376935</v>
       </c>
       <c r="J17">
-        <v>0.006092108325740415</v>
+        <v>0.004018499278376936</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.203295</v>
+        <v>3.243447333333334</v>
       </c>
       <c r="N17">
-        <v>12.609885</v>
+        <v>9.730342</v>
       </c>
       <c r="O17">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="P17">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="Q17">
-        <v>4.63827718637</v>
+        <v>2.230123030558667</v>
       </c>
       <c r="R17">
-        <v>41.74449467733</v>
+        <v>20.071107275028</v>
       </c>
       <c r="S17">
-        <v>0.0001845801426991485</v>
+        <v>5.044749870754211E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001845801426991485</v>
+        <v>5.044749870754211E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.103486</v>
+        <v>0.6875779999999999</v>
       </c>
       <c r="H18">
-        <v>3.310458</v>
+        <v>2.062734</v>
       </c>
       <c r="I18">
-        <v>0.006092108325740414</v>
+        <v>0.004018499278376935</v>
       </c>
       <c r="J18">
-        <v>0.006092108325740415</v>
+        <v>0.004018499278376936</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>191.513858</v>
       </c>
       <c r="O18">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="P18">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="Q18">
-        <v>70.44428703632934</v>
+        <v>43.89357181864133</v>
       </c>
       <c r="R18">
-        <v>633.9985833269641</v>
+        <v>395.042146367772</v>
       </c>
       <c r="S18">
-        <v>0.002803328915252159</v>
+        <v>0.0009929142371287055</v>
       </c>
       <c r="T18">
-        <v>0.00280332891525216</v>
+        <v>0.0009929142371287055</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.103486</v>
+        <v>0.6875779999999999</v>
       </c>
       <c r="H19">
-        <v>3.310458</v>
+        <v>2.062734</v>
       </c>
       <c r="I19">
-        <v>0.006092108325740414</v>
+        <v>0.004018499278376935</v>
       </c>
       <c r="J19">
-        <v>0.006092108325740415</v>
+        <v>0.004018499278376936</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.211444666666667</v>
+        <v>103.7552793333333</v>
       </c>
       <c r="N19">
-        <v>24.634334</v>
+        <v>311.265838</v>
       </c>
       <c r="O19">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="P19">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="Q19">
-        <v>9.061214229441333</v>
+        <v>71.33984745345465</v>
       </c>
       <c r="R19">
-        <v>81.550928064972</v>
+        <v>642.0586270810919</v>
       </c>
       <c r="S19">
-        <v>0.0003605908289424119</v>
+        <v>0.001613775030744758</v>
       </c>
       <c r="T19">
-        <v>0.000360590828942412</v>
+        <v>0.001613775030744758</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.103486</v>
+        <v>0.6875779999999999</v>
       </c>
       <c r="H20">
-        <v>3.310458</v>
+        <v>2.062734</v>
       </c>
       <c r="I20">
-        <v>0.006092108325740414</v>
+        <v>0.004018499278376935</v>
       </c>
       <c r="J20">
-        <v>0.006092108325740415</v>
+        <v>0.004018499278376936</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>32.53755666666667</v>
+        <v>23.61337433333334</v>
       </c>
       <c r="N20">
-        <v>97.61267000000001</v>
+        <v>70.84012300000001</v>
       </c>
       <c r="O20">
-        <v>0.2345375729390458</v>
+        <v>0.09139594860190291</v>
       </c>
       <c r="P20">
-        <v>0.2345375729390459</v>
+        <v>0.09139594860190289</v>
       </c>
       <c r="Q20">
-        <v>35.90473825587333</v>
+        <v>16.23603669736467</v>
       </c>
       <c r="R20">
-        <v>323.14264430286</v>
+        <v>146.124330276282</v>
       </c>
       <c r="S20">
-        <v>0.001428828300800911</v>
+        <v>0.0003672745535033223</v>
       </c>
       <c r="T20">
-        <v>0.001428828300800911</v>
+        <v>0.0003672745535033223</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.103486</v>
+        <v>0.6875779999999999</v>
       </c>
       <c r="H21">
-        <v>3.310458</v>
+        <v>2.062734</v>
       </c>
       <c r="I21">
-        <v>0.006092108325740414</v>
+        <v>0.004018499278376935</v>
       </c>
       <c r="J21">
-        <v>0.006092108325740415</v>
+        <v>0.004018499278376936</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.94042966666667</v>
+        <v>63.91341533333334</v>
       </c>
       <c r="N21">
-        <v>89.82128900000001</v>
+        <v>191.740246</v>
       </c>
       <c r="O21">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="P21">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="Q21">
-        <v>33.03884497115133</v>
+        <v>43.94545828806267</v>
       </c>
       <c r="R21">
-        <v>297.3496047403621</v>
+        <v>395.509124592564</v>
       </c>
       <c r="S21">
-        <v>0.001314780138045784</v>
+        <v>0.0009940879582926074</v>
       </c>
       <c r="T21">
-        <v>0.001314780138045784</v>
+        <v>0.0009940879582926074</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>24.872162</v>
+        <v>33.136844</v>
       </c>
       <c r="H22">
-        <v>74.61648600000001</v>
+        <v>99.410532</v>
       </c>
       <c r="I22">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="J22">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.203295</v>
+        <v>3.243447333333334</v>
       </c>
       <c r="N22">
-        <v>12.609885</v>
+        <v>9.730342</v>
       </c>
       <c r="O22">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="P22">
-        <v>0.03029823713397533</v>
+        <v>0.01255381554477167</v>
       </c>
       <c r="Q22">
-        <v>104.54503417379</v>
+        <v>107.4776083068827</v>
       </c>
       <c r="R22">
-        <v>940.90530756411</v>
+        <v>967.298474761944</v>
       </c>
       <c r="S22">
-        <v>0.004160367427585253</v>
+        <v>0.002431245465768284</v>
       </c>
       <c r="T22">
-        <v>0.004160367427585252</v>
+        <v>0.002431245465768284</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>24.872162</v>
+        <v>33.136844</v>
       </c>
       <c r="H23">
-        <v>74.61648600000001</v>
+        <v>99.410532</v>
       </c>
       <c r="I23">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="J23">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>191.513858</v>
       </c>
       <c r="O23">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="P23">
-        <v>0.4601574307875512</v>
+        <v>0.2470858318854151</v>
       </c>
       <c r="Q23">
-        <v>1587.787900473666</v>
+        <v>2115.388278794718</v>
       </c>
       <c r="R23">
-        <v>14290.09110426299</v>
+        <v>19038.49450915246</v>
       </c>
       <c r="S23">
-        <v>0.06318598597484335</v>
+        <v>0.04785208977179743</v>
       </c>
       <c r="T23">
-        <v>0.06318598597484335</v>
+        <v>0.04785208977179743</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>24.872162</v>
+        <v>33.136844</v>
       </c>
       <c r="H24">
-        <v>74.61648600000001</v>
+        <v>99.410532</v>
       </c>
       <c r="I24">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="J24">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.211444666666667</v>
+        <v>103.7552793333333</v>
       </c>
       <c r="N24">
-        <v>24.634334</v>
+        <v>311.265838</v>
       </c>
       <c r="O24">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="P24">
-        <v>0.05918982553524883</v>
+        <v>0.4015864926064037</v>
       </c>
       <c r="Q24">
-        <v>204.2363820033694</v>
+        <v>3438.122505445091</v>
       </c>
       <c r="R24">
-        <v>1838.127438030324</v>
+        <v>30943.10254900581</v>
       </c>
       <c r="S24">
-        <v>0.008127582509583231</v>
+        <v>0.07777359287947587</v>
       </c>
       <c r="T24">
-        <v>0.008127582509583231</v>
+        <v>0.07777359287947586</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>24.872162</v>
+        <v>33.136844</v>
       </c>
       <c r="H25">
-        <v>74.61648600000001</v>
+        <v>99.410532</v>
       </c>
       <c r="I25">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="J25">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>32.53755666666667</v>
+        <v>23.61337433333334</v>
       </c>
       <c r="N25">
-        <v>97.61267000000001</v>
+        <v>70.84012300000001</v>
       </c>
       <c r="O25">
-        <v>0.2345375729390458</v>
+        <v>0.09139594860190291</v>
       </c>
       <c r="P25">
-        <v>0.2345375729390459</v>
+        <v>0.09139594860190289</v>
       </c>
       <c r="Q25">
-        <v>809.2793804975134</v>
+        <v>782.4727015972709</v>
       </c>
       <c r="R25">
-        <v>7283.514424477621</v>
+        <v>7042.254314375436</v>
       </c>
       <c r="S25">
-        <v>0.03220525585979794</v>
+        <v>0.01770027485552075</v>
       </c>
       <c r="T25">
-        <v>0.03220525585979794</v>
+        <v>0.01770027485552075</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>24.872162</v>
+        <v>33.136844</v>
       </c>
       <c r="H26">
-        <v>74.61648600000001</v>
+        <v>99.410532</v>
       </c>
       <c r="I26">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="J26">
-        <v>0.1373138446698593</v>
+        <v>0.1936658585668668</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>29.94042966666667</v>
+        <v>63.91341533333334</v>
       </c>
       <c r="N26">
-        <v>89.82128900000001</v>
+        <v>191.740246</v>
       </c>
       <c r="O26">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="P26">
-        <v>0.2158169336041788</v>
+        <v>0.2473779113615065</v>
       </c>
       <c r="Q26">
-        <v>744.6832170189396</v>
+        <v>2117.888873407875</v>
       </c>
       <c r="R26">
-        <v>6702.148953170456</v>
+        <v>19060.99986067087</v>
       </c>
       <c r="S26">
-        <v>0.02963465289804956</v>
+        <v>0.04790865559430443</v>
       </c>
       <c r="T26">
-        <v>0.02963465289804955</v>
+        <v>0.04790865559430442</v>
       </c>
     </row>
   </sheetData>
